--- a/LOGS/2a465118-9c4e-4fea-abc5-b0fdbab2eae7/main_page_service_output/main_pages.xlsx
+++ b/LOGS/2a465118-9c4e-4fea-abc5-b0fdbab2eae7/main_page_service_output/main_pages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="87">
   <si>
     <t>Particulars</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>current</t>
+  </si>
+  <si>
+    <t>noncurrent</t>
   </si>
   <si>
     <t>equity</t>
@@ -1007,7 +1010,7 @@
         <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1027,7 +1030,7 @@
         <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1044,7 +1047,7 @@
         <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1061,7 +1064,7 @@
         <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1078,7 +1081,7 @@
         <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1095,7 +1098,7 @@
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1112,7 +1115,7 @@
         <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1132,7 +1135,7 @@
         <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1149,7 +1152,7 @@
         <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1166,7 +1169,7 @@
         <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1198,10 +1201,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>51175</v>
@@ -1212,7 +1215,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>-27968</v>
@@ -1223,7 +1226,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>23207</v>
@@ -1234,10 +1237,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1248,10 +1251,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>-5408</v>
@@ -1262,10 +1265,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>-13294</v>
@@ -1276,7 +1279,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>4505</v>
@@ -1287,10 +1290,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>57</v>
@@ -1301,10 +1304,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>-180</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>-123</v>
@@ -1326,7 +1329,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>4382</v>
@@ -1337,7 +1340,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -1351,7 +1354,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>3056</v>
@@ -1362,7 +1365,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1373,7 +1376,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16">
         <v>3056</v>
@@ -1417,7 +1420,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1426,12 +1429,12 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>49759</v>
@@ -1440,12 +1443,12 @@
         <v>44149</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>-42396</v>
@@ -1454,12 +1457,12 @@
         <v>-42552</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>-124</v>
@@ -1468,12 +1471,12 @@
         <v>-63</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>57</v>
@@ -1482,12 +1485,12 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>-1377</v>
@@ -1496,15 +1499,15 @@
         <v>-1631</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>5919</v>
@@ -1513,12 +1516,12 @@
         <v>-74</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1527,12 +1530,12 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -1544,12 +1547,12 @@
         <v>-1392</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1558,12 +1561,12 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12">
         <v>-1191</v>
@@ -1572,12 +1575,12 @@
         <v>-1351</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1586,12 +1589,12 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14">
         <v>-2</v>
@@ -1600,12 +1603,12 @@
         <v>-141</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1614,12 +1617,12 @@
         <v>-4000</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16">
         <v>-1775</v>
@@ -1628,12 +1631,12 @@
         <v>-1291</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17">
         <v>-1777</v>
@@ -1642,12 +1645,12 @@
         <v>-5432</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18">
         <v>2951</v>
@@ -1656,12 +1659,12 @@
         <v>-6857</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19">
         <v>5423</v>
@@ -1670,12 +1673,12 @@
         <v>12280</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -1687,7 +1690,7 @@
         <v>5423</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
